--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -234,18 +234,9 @@
     <t>IMAL-8544</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DS_Test</t>
-  </si>
-  <si>
     <t>Party Value</t>
   </si>
   <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
     <t>Product Class</t>
   </si>
   <si>
@@ -255,13 +246,28 @@
     <t>Deal Nbr</t>
   </si>
   <si>
-    <t>5334</t>
-  </si>
-  <si>
-    <t>5335</t>
-  </si>
-  <si>
-    <t>5337</t>
+    <t>Settlement Nbr</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_003</t>
+  </si>
+  <si>
+    <t>Party Amt</t>
+  </si>
+  <si>
+    <t>DS_AT_IC_022</t>
+  </si>
+  <si>
+    <t>Charges Code</t>
+  </si>
+  <si>
+    <t>Category Code</t>
+  </si>
+  <si>
+    <t>Charge Allocation DD</t>
+  </si>
+  <si>
+    <t>Next Installment</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,16 +962,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="40" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1660,15 +1666,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="17" width="10.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="17" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="17" width="16.109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="17" width="29.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="17" width="31.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="17" width="30.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="17" width="29.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="17" width="28.88671875" collapsed="true"/>
-    <col min="11" max="16384" style="17" width="44.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="17" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -1896,25 +1902,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.23828125" collapsed="true"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
+    <row r="1" spans="1:13" ht="14.4">
       <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
@@ -1925,24 +1935,35 @@
         <v>66</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="30" t="s">
         <v>56</v>
       </c>
@@ -1959,13 +1980,16 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="30" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27">
@@ -1980,25 +2004,51 @@
       <c r="G3" s="27">
         <v>10500</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H3" s="27">
+        <v>5371</v>
+      </c>
+      <c r="I3" s="27">
+        <v>3</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27">
+        <v>727</v>
+      </c>
+      <c r="E4" s="27">
+        <v>3</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="27">
+        <v>10500</v>
+      </c>
+      <c r="H4" s="27">
+        <v>5344</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="38"/>
@@ -2009,8 +2059,11 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="38"/>
@@ -2021,6 +2074,24 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,15 +2103,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2106,11 +2177,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2184,9 +2255,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2260,12 +2331,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2335,12 +2406,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2410,10 +2481,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2482,8 +2553,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2557,9 +2628,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="SadsLogin" sheetId="8" r:id="rId9"/>
     <sheet name="TestExecution" sheetId="9" r:id="rId10"/>
     <sheet name="IncidentalChargesTestData" sheetId="26" r:id="rId11"/>
+    <sheet name="AccrualDealTestData" sheetId="27" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -231,9 +232,6 @@
     <t>Track Nbr</t>
   </si>
   <si>
-    <t>IMAL-8544</t>
-  </si>
-  <si>
     <t>Party Value</t>
   </si>
   <si>
@@ -268,6 +266,30 @@
   </si>
   <si>
     <t>Next Installment</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DS_AT_AD_018</t>
+  </si>
+  <si>
+    <t>Yield Margin</t>
+  </si>
+  <si>
+    <t>No of Payments</t>
+  </si>
+  <si>
+    <t>9586</t>
   </si>
 </sst>
 </file>
@@ -517,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -605,7 +627,16 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -645,6 +676,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -945,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,21 +993,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="40" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1016,10 +1052,10 @@
       <c r="C2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="D2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
@@ -1036,7 +1072,9 @@
       <c r="C3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -1054,7 +1092,9 @@
       <c r="C4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -1072,7 +1112,9 @@
       <c r="C5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -1090,7 +1132,9 @@
       <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
@@ -1666,15 +1710,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="17" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="17"/>
+    <col min="1" max="1" customWidth="true" style="17" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="17" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="17" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="17" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="17" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="17" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="17" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="17" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="17" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -1904,24 +1948,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="10.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="17.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -1935,31 +1979,31 @@
         <v>66</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="M1" s="29"/>
     </row>
@@ -1989,7 +2033,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27">
@@ -2011,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
@@ -2022,7 +2066,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27">
@@ -2092,6 +2136,203 @@
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="15.23828125" collapsed="false" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="27">
+        <v>727</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>100</v>
+      </c>
+      <c r="F2" s="27">
+        <v>10500</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="27">
+        <v>727</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>118</v>
+      </c>
+      <c r="F3" s="27">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="27">
+        <v>727</v>
+      </c>
+      <c r="D4" s="27">
+        <v>11</v>
+      </c>
+      <c r="E4" s="53">
+        <v>163</v>
+      </c>
+      <c r="F4" s="53">
+        <v>1500000</v>
+      </c>
+      <c r="G4" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="53">
+        <v>48</v>
+      </c>
+      <c r="I4" s="53">
+        <v>5409</v>
+      </c>
+      <c r="J4" s="53">
+        <v>100</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,10 +2349,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2177,11 +2418,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2255,9 +2496,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2331,12 +2572,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2406,12 +2647,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2481,10 +2722,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2553,8 +2794,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2628,9 +2869,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="TestExecution" sheetId="9" r:id="rId10"/>
     <sheet name="IncidentalChargesTestData" sheetId="26" r:id="rId11"/>
     <sheet name="AccrualDealTestData" sheetId="27" r:id="rId12"/>
+    <sheet name="AccrualProcessTestData" sheetId="28" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -289,7 +290,70 @@
     <t>No of Payments</t>
   </si>
   <si>
-    <t>9586</t>
+    <t>Advance Principal</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_022</t>
+  </si>
+  <si>
+    <t>AT_AP_022</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Profit Calculation</t>
+  </si>
+  <si>
+    <t>Profit Recognition</t>
+  </si>
+  <si>
+    <t>Diminishing Returns</t>
+  </si>
+  <si>
+    <t>Grace Period</t>
+  </si>
+  <si>
+    <t>Grace Period DD</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Tenure DD</t>
+  </si>
+  <si>
+    <t>AT_AP_020</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_020</t>
+  </si>
+  <si>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>Accruals From</t>
+  </si>
+  <si>
+    <t>Accruals To</t>
+  </si>
+  <si>
+    <t>31/01/2012</t>
+  </si>
+  <si>
+    <t>update_data_set_id_1</t>
+  </si>
+  <si>
+    <t>AT_AP_021</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_021</t>
+  </si>
+  <si>
+    <t>First Pay After</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -539,7 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -637,6 +701,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -981,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,16 +1069,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="40" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="10.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="3" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="34.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="34.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="3" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1710,15 +1781,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="17" width="10.6640625" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="17" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="17" width="16.109375" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="17" width="29.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="17" width="31.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="17" width="30.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="17" width="29.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="17" width="28.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="17" width="44.6640625" collapsed="false"/>
+    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="17" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -1954,18 +2025,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -2144,27 +2215,29 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="15.23828125" collapsed="false" bestFit="true"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
@@ -2198,8 +2271,11 @@
       <c r="K1" s="29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
@@ -2225,8 +2301,9 @@
         <v>1000</v>
       </c>
       <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
         <v>59</v>
       </c>
@@ -2252,8 +2329,9 @@
         <v>1000</v>
       </c>
       <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="52" t="s">
         <v>60</v>
       </c>
@@ -2284,11 +2362,12 @@
       <c r="J4" s="53">
         <v>100</v>
       </c>
-      <c r="K4" s="53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="53"/>
@@ -2300,8 +2379,9 @@
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
@@ -2313,8 +2393,9 @@
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="53"/>
@@ -2326,6 +2407,7 @@
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="51" t="s">
@@ -2336,6 +2418,318 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="58" customWidth="1"/>
+    <col min="17" max="17" width="14" style="58" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.4">
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="27">
+        <v>727</v>
+      </c>
+      <c r="E2" s="27">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27">
+        <v>100</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27">
+        <v>5471</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27">
+        <v>5478</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="27">
+        <v>727</v>
+      </c>
+      <c r="E4" s="27">
+        <v>3</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="56">
+        <v>1050000</v>
+      </c>
+      <c r="H4" s="27">
+        <v>10</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2349,10 +2743,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2418,11 +2812,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2496,9 +2890,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2572,12 +2966,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2647,12 +3041,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="13" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="13" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="13"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2722,10 +3116,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2794,8 +3188,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -2869,9 +3263,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="16384" style="13" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="IncidentalChargesTestData" sheetId="26" r:id="rId11"/>
     <sheet name="AccrualDealTestData" sheetId="27" r:id="rId12"/>
     <sheet name="AccrualProcessTestData" sheetId="28" r:id="rId13"/>
+    <sheet name="MTSTestData" sheetId="29" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -341,9 +342,6 @@
     <t>31/01/2012</t>
   </si>
   <si>
-    <t>update_data_set_id_1</t>
-  </si>
-  <si>
     <t>AT_AP_021</t>
   </si>
   <si>
@@ -354,6 +352,48 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>AT_AP_023</t>
+  </si>
+  <si>
+    <t>Additional Ref</t>
+  </si>
+  <si>
+    <t>Brief Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Menu Ref</t>
+  </si>
+  <si>
+    <t>Periodicity DD</t>
+  </si>
+  <si>
+    <t>Process Batch DD</t>
+  </si>
+  <si>
+    <t>EOD Test</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_023_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_023_01</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Batch Run Date</t>
   </si>
 </sst>
 </file>
@@ -603,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -707,7 +747,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1052,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2423,309 +2462,430 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="58" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" style="58" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="58" customWidth="1"/>
-    <col min="17" max="17" width="14" style="58" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="58" customWidth="1"/>
+    <col min="16" max="16" width="14" style="58" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:16" ht="14.4">
       <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>103</v>
+      <c r="C1" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>69</v>
       </c>
+      <c r="G1" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="H1" s="29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="29" t="s">
         <v>70</v>
       </c>
+      <c r="N1" s="55" t="s">
+        <v>100</v>
+      </c>
       <c r="O1" s="55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>87</v>
+      <c r="C2" s="27">
+        <v>727</v>
       </c>
       <c r="D2" s="27">
-        <v>727</v>
+        <v>3</v>
       </c>
       <c r="E2" s="27">
-        <v>3</v>
-      </c>
-      <c r="F2" s="27">
         <v>100</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>99</v>
       </c>
+      <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27">
+      <c r="M2" s="27">
         <v>5471</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" s="56"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27">
+      <c r="M3" s="27">
         <v>5478</v>
       </c>
+      <c r="N3" s="56"/>
       <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="27">
+        <v>727</v>
+      </c>
       <c r="D4" s="27">
-        <v>727</v>
+        <v>3</v>
       </c>
       <c r="E4" s="27">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27">
         <v>100</v>
       </c>
-      <c r="G4" s="56">
+      <c r="F4" s="56">
         <v>1050000</v>
       </c>
-      <c r="H4" s="27">
+      <c r="G4" s="27">
         <v>10</v>
       </c>
+      <c r="H4" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="I4" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="27">
+      <c r="K4" s="27">
         <v>1</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="27">
+        <v>727</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>100</v>
+      </c>
+      <c r="F5" s="56">
+        <v>1050000</v>
+      </c>
+      <c r="G5" s="27">
+        <v>10</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="57"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="57"/>
       <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="27">
+        <v>86565</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="27">
+        <v>8656</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3111,7 +3271,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>DS_AT_AD_015</t>
   </si>
   <si>
@@ -394,6 +391,60 @@
   </si>
   <si>
     <t>Batch Run Date</t>
+  </si>
+  <si>
+    <t>AT_AP_023_01</t>
+  </si>
+  <si>
+    <t>AT_AP_023_02</t>
+  </si>
+  <si>
+    <t>Sprint 13</t>
+  </si>
+  <si>
+    <t>AT_AP_044</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_044</t>
+  </si>
+  <si>
+    <t>24/06/2014</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_045</t>
+  </si>
+  <si>
+    <t>AT_AP_045</t>
+  </si>
+  <si>
+    <t>AT_AP_043</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_043</t>
+  </si>
+  <si>
+    <t>Running Date</t>
+  </si>
+  <si>
+    <t>25/03/2021</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>AT_AP_046</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_046</t>
+  </si>
+  <si>
+    <t>EOD Accrual</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
   </si>
 </sst>
 </file>
@@ -643,9 +694,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -696,26 +746,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -747,6 +778,31 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1091,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1103,706 +1159,744 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="3"/>
+    <col min="1" max="1" width="13.33203125" style="54" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="20" style="56" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="53">
         <v>130741</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="36"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="53">
         <v>1166871</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="53">
         <v>128350</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="53">
         <v>128362</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
+      <c r="D5" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="53">
         <v>128365</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36"/>
+      <c r="D6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36"/>
+      <c r="A8" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="53">
+        <v>128365</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36"/>
+      <c r="A9" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="53">
+        <v>141480</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
+      <c r="A10" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="53">
+        <v>141483</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="36"/>
+      <c r="A11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="53">
+        <v>252434</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36"/>
+      <c r="A12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="53">
+        <v>252435</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="36"/>
+      <c r="A13" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="53">
+        <v>252435</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="36"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="36"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="36"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="36"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="36"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="36"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="36"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="36"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="36"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="36"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="36"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="36"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="36"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="52"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="36"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="36"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="52"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="36"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="52"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="36"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="36"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="52"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="36"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="36"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="36"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="36"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="36"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="52"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="36"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="36"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="36"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="52"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="36"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="36"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="36"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="36"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="36"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="36"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="36"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="36"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="36"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="36"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="52"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="36"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="36"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="52"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="36"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9802999999999997" footer="4.9802999999999997"/>
@@ -1820,220 +1914,220 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="17" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="17"/>
+    <col min="1" max="1" width="10.6640625" style="16" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="16" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="42">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="42">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="42">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="42">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="42">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="42">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D13">
@@ -2079,173 +2173,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="29"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>49</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26">
         <v>727</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>3</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>100</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>10500</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>5371</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>3</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26">
         <v>727</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>100</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>10500</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>5344</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26">
         <v>1000</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2257,7 +2351,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2277,183 +2371,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>727</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>3</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>100</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>10500</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26">
         <v>1000</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="26">
+        <v>727</v>
+      </c>
+      <c r="D3" s="26">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26">
+        <v>118</v>
+      </c>
+      <c r="F3" s="26">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="26">
+        <v>727</v>
+      </c>
+      <c r="D4" s="26">
+        <v>11</v>
+      </c>
+      <c r="E4" s="43">
+        <v>163</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1500000</v>
+      </c>
+      <c r="G4" s="43">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="43">
+        <v>48</v>
+      </c>
+      <c r="I4" s="43">
+        <v>5409</v>
+      </c>
+      <c r="J4" s="43">
+        <v>100</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="27">
-        <v>727</v>
-      </c>
-      <c r="D3" s="27">
-        <v>3</v>
-      </c>
-      <c r="E3" s="27">
-        <v>118</v>
-      </c>
-      <c r="F3" s="27">
-        <v>15000</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="27">
-        <v>727</v>
-      </c>
-      <c r="D4" s="27">
-        <v>11</v>
-      </c>
-      <c r="E4" s="53">
-        <v>163</v>
-      </c>
-      <c r="F4" s="53">
-        <v>1500000</v>
-      </c>
-      <c r="G4" s="53">
-        <v>8.5</v>
-      </c>
-      <c r="H4" s="53">
-        <v>48</v>
-      </c>
-      <c r="I4" s="53">
-        <v>5409</v>
-      </c>
-      <c r="J4" s="53">
-        <v>100</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="F26" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,318 +2556,381 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" style="58" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="58" customWidth="1"/>
-    <col min="16" max="16" width="14" style="58" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" style="48" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14" style="48" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:18" ht="14.4">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="B2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="26">
+        <v>727</v>
+      </c>
+      <c r="E2" s="26">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26">
+        <v>100</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26">
+        <v>5554</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="26">
+        <v>727</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>100</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1050000</v>
+      </c>
+      <c r="H4" s="26">
+        <v>10</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="26">
+        <v>1</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="55" t="s">
+      <c r="N4" s="26"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="26">
+        <v>727</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
         <v>100</v>
       </c>
-      <c r="O1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="G5" s="46">
+        <v>1050000</v>
+      </c>
+      <c r="H5" s="26">
+        <v>10</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="26">
         <v>727</v>
       </c>
-      <c r="D2" s="27">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27">
-        <v>100</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27">
-        <v>5471</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27">
-        <v>5478</v>
-      </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="27">
-        <v>727</v>
-      </c>
-      <c r="D4" s="27">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27">
-        <v>100</v>
-      </c>
-      <c r="F4" s="56">
-        <v>1050000</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="E6" s="26">
+        <v>11</v>
+      </c>
+      <c r="F6" s="26">
+        <v>152</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="26">
         <v>10</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="I6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="26">
         <v>1</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="27">
-        <v>727</v>
-      </c>
-      <c r="D5" s="27">
-        <v>3</v>
-      </c>
-      <c r="E5" s="27">
-        <v>100</v>
-      </c>
-      <c r="F5" s="56">
-        <v>1050000</v>
-      </c>
-      <c r="G5" s="27">
-        <v>10</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="27">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
+      <c r="M6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2786,7 +2943,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2799,93 +2956,111 @@
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="48" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="26">
+        <v>86565</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="27">
-        <v>86565</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="26">
+        <v>8656</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="H2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="26">
+        <v>8885</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="26">
+        <v>8885</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="27">
-        <v>8656</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2903,56 +3078,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="3"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2980,53 +3155,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>123</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>321</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3056,53 +3231,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>123</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>321</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3126,62 +3301,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" width="11.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="12"/>
+    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>123</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>321</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3201,62 +3376,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="12"/>
+    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>123</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>321</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3283,53 +3458,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>321</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>123</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3353,53 +3528,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>321</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>123</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3423,41 +3598,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="13"/>
+    <col min="1" max="1" width="12.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>123</v>
       </c>
     </row>

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="AccrualDealTestData" sheetId="27" r:id="rId12"/>
     <sheet name="AccrualProcessTestData" sheetId="28" r:id="rId13"/>
     <sheet name="MTSTestData" sheetId="29" r:id="rId14"/>
+    <sheet name="AdvancePrincipalSettlement" sheetId="30" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="157">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -445,6 +446,63 @@
   </si>
   <si>
     <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>IMAL-9032</t>
+  </si>
+  <si>
+    <t>AT_APY_015</t>
+  </si>
+  <si>
+    <t>AT_APY_016</t>
+  </si>
+  <si>
+    <t>AT_APY_017</t>
+  </si>
+  <si>
+    <t>AT_APY_018</t>
+  </si>
+  <si>
+    <t>Sprint 15</t>
+  </si>
+  <si>
+    <t>AT_APS_004</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_004</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_006</t>
+  </si>
+  <si>
+    <t>AT_APS_006</t>
+  </si>
+  <si>
+    <t>Agency Fee</t>
+  </si>
+  <si>
+    <t>Compound Grace Period</t>
+  </si>
+  <si>
+    <t>Compound Grace Period DD</t>
+  </si>
+  <si>
+    <t>AT_APS_005</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_005</t>
+  </si>
+  <si>
+    <t>Reason Code</t>
+  </si>
+  <si>
+    <t>5664</t>
   </si>
 </sst>
 </file>
@@ -694,7 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -803,6 +861,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1147,7 +1224,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1159,21 +1236,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="54" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="54" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="20" style="56" customWidth="1"/>
-    <col min="10" max="10" width="34.88671875" style="54" customWidth="1"/>
-    <col min="11" max="16384" width="32.33203125" style="54"/>
+    <col min="1" max="1" customWidth="true" style="54" width="13.33203125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="54" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="54" width="15.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="54" width="10.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="54" width="13.33203125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="54" width="16.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="56" width="34.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="56" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="54" width="34.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="54" width="32.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1350,7 +1427,9 @@
       <c r="C9" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -1368,7 +1447,9 @@
       <c r="C10" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
@@ -1386,7 +1467,9 @@
       <c r="C11" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
@@ -1404,7 +1487,9 @@
       <c r="C12" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
@@ -1422,7 +1507,9 @@
       <c r="C13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
@@ -1443,11 +1530,21 @@
       <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="58">
+        <v>252473</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="55"/>
@@ -1455,10 +1552,18 @@
       <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="58">
+        <v>252474</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -1467,10 +1572,18 @@
       <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="58">
+        <v>252475</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -1479,10 +1592,18 @@
       <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="58">
+        <v>252476</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
@@ -1503,9 +1624,15 @@
       <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1362525</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>141</v>
+      </c>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
@@ -1515,9 +1642,15 @@
       <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="58">
+        <v>1391236</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>142</v>
+      </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -1527,9 +1660,15 @@
       <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="58">
+        <v>1391237</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>143</v>
+      </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
@@ -1539,9 +1678,15 @@
       <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="58">
+        <v>1391267</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>144</v>
+      </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -1914,15 +2059,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="16" customWidth="1"/>
-    <col min="2" max="3" width="15.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="16" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="44.6640625" style="16"/>
+    <col min="1" max="1" customWidth="true" style="16" width="10.6640625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" style="16" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="16" width="16.109375" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="16" width="29.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="16" width="31.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="16" width="30.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="16" width="29.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="16" width="28.88671875" collapsed="false"/>
+    <col min="11" max="16384" style="16" width="44.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -2158,18 +2303,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="10.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="17.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -2351,23 +2496,23 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="12.77734375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4">
@@ -2492,9 +2637,7 @@
       <c r="I4" s="43">
         <v>5409</v>
       </c>
-      <c r="J4" s="43">
-        <v>100</v>
-      </c>
+      <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43">
         <v>100000</v>
@@ -2559,29 +2702,29 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" style="48" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="14" style="48" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" style="48" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="48" width="12.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="48" width="12.21875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="19.44140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.77734375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="9.109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="48" width="13.77734375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="48" width="11.33203125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="48" width="14.0" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="48" width="16.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -2942,22 +3085,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="17.77734375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="48" width="14.6640625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4">
@@ -3065,6 +3208,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="22.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="9.23828125" collapsed="false" bestFit="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="16.5546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.4">
+      <c r="A1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="61">
+        <v>727</v>
+      </c>
+      <c r="D2" s="61">
+        <v>11</v>
+      </c>
+      <c r="E2" s="61">
+        <v>163</v>
+      </c>
+      <c r="F2" s="61">
+        <v>1050000</v>
+      </c>
+      <c r="G2" s="61">
+        <v>8.5</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="64">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="61">
+        <v>727</v>
+      </c>
+      <c r="D3" s="61">
+        <v>11</v>
+      </c>
+      <c r="E3" s="61">
+        <v>163</v>
+      </c>
+      <c r="F3" s="61">
+        <v>420000</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="61">
+        <v>4000</v>
+      </c>
+      <c r="M3" s="61">
+        <v>9647</v>
+      </c>
+      <c r="N3" s="61">
+        <v>0</v>
+      </c>
+      <c r="O3" s="64">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="61">
+        <v>727</v>
+      </c>
+      <c r="D4" s="61">
+        <v>3</v>
+      </c>
+      <c r="E4" s="61">
+        <v>422</v>
+      </c>
+      <c r="F4" s="61">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="61">
+        <v>8</v>
+      </c>
+      <c r="H4" s="61">
+        <v>2</v>
+      </c>
+      <c r="I4" s="61">
+        <v>1</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3078,10 +3409,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="137.6640625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="33.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="42.88671875" collapsed="false"/>
+    <col min="4" max="16384" style="2" width="137.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3147,11 +3478,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3225,9 +3556,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3301,12 +3632,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="12"/>
-    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="12"/>
+    <col min="1" max="1" customWidth="true" style="12" width="11.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="12" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="12" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="12" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="12" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3376,12 +3707,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="12"/>
-    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="10.44140625" style="12"/>
+    <col min="1" max="1" customWidth="true" style="12" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="12" width="11.5546875" collapsed="false"/>
+    <col min="3" max="3" style="12" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="12" width="15.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
+    <col min="6" max="16384" style="12" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3451,10 +3782,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3523,8 +3854,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3598,9 +3929,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="10.44140625" style="12"/>
+    <col min="1" max="1" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="12" width="11.33203125" collapsed="false"/>
+    <col min="3" max="16384" style="12" width="10.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/FMS_SankarS2/TestData/IISTestData.xlsx
+++ b/FMS_SankarS2/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" tabRatio="806" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,16 @@
     <sheet name="AccrualProcessTestData" sheetId="28" r:id="rId13"/>
     <sheet name="MTSTestData" sheetId="29" r:id="rId14"/>
     <sheet name="AdvancePrincipalSettlement" sheetId="30" r:id="rId15"/>
+    <sheet name="AssetManagement" sheetId="31" r:id="rId16"/>
+    <sheet name="AlertTestData" sheetId="32" r:id="rId17"/>
+    <sheet name="PenaltyTestData" sheetId="33" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="176">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -502,7 +505,64 @@
     <t>Reason Code</t>
   </si>
   <si>
-    <t>5664</t>
+    <t>AT_AM_001</t>
+  </si>
+  <si>
+    <t>DS_AT_AM_001</t>
+  </si>
+  <si>
+    <t>AT_AL_003</t>
+  </si>
+  <si>
+    <t>AT_AL_004</t>
+  </si>
+  <si>
+    <t>AT_AL_005</t>
+  </si>
+  <si>
+    <t>AT_AL_006</t>
+  </si>
+  <si>
+    <t>AT_AP_035</t>
+  </si>
+  <si>
+    <t>AT_APS_003</t>
+  </si>
+  <si>
+    <t>Descoped</t>
+  </si>
+  <si>
+    <t>Sprint 16</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_003</t>
+  </si>
+  <si>
+    <t>AT_PNLT_001</t>
+  </si>
+  <si>
+    <t>DS_AT_PNLT_001</t>
+  </si>
+  <si>
+    <t>Penalty Percentage</t>
+  </si>
+  <si>
+    <t>AT_APS_016</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_016</t>
+  </si>
+  <si>
+    <t>Settlement Amt</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_017</t>
+  </si>
+  <si>
+    <t>AT_APS_017</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_035</t>
   </si>
 </sst>
 </file>
@@ -752,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -880,6 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="7"/>
@@ -1224,7 +1285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1232,25 +1293,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="54" width="13.33203125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="54" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="54" width="15.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="54" width="10.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="54" width="13.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="54" width="16.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="56" width="34.5546875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="56" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="54" width="34.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="54" width="32.33203125" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" style="54" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="20" style="56" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="32.33203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1633,7 +1694,9 @@
       <c r="C20" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
@@ -1651,7 +1714,9 @@
       <c r="C21" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -1669,7 +1734,9 @@
       <c r="C22" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
@@ -1681,13 +1748,15 @@
       <c r="A23" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="65">
         <v>1391267</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
@@ -1696,10 +1765,18 @@
       <c r="J23" s="52"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="58">
+        <v>186132</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
@@ -1708,10 +1785,18 @@
       <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="58">
+        <v>188933</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
@@ -1720,10 +1805,18 @@
       <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="65">
+        <v>258493</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -1732,10 +1825,18 @@
       <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="58">
+        <v>252451</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
@@ -1744,10 +1845,18 @@
       <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="58">
+        <v>142773</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>164</v>
+      </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
@@ -1780,9 +1889,15 @@
       <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+      <c r="A31" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="58">
+        <v>907907</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>158</v>
+      </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
@@ -1792,9 +1907,15 @@
       <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="A32" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="58">
+        <v>1257542</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>159</v>
+      </c>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
@@ -1804,9 +1925,15 @@
       <c r="J32" s="52"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="A33" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="58">
+        <v>1257605</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>160</v>
+      </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
@@ -1816,9 +1943,15 @@
       <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="A34" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="58">
+        <v>1305016</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>161</v>
+      </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
@@ -1828,10 +1961,18 @@
       <c r="J34" s="52"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="58">
+        <v>408270</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>79</v>
+      </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
@@ -2042,6 +2183,42 @@
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
       <c r="J52" s="52"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="52"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="52"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9802999999999997" footer="4.9802999999999997"/>
@@ -2059,15 +2236,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="10.6640625" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" style="16" width="15.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="16" width="16.109375" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="16" width="29.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="16" width="31.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="16" width="30.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="16" width="29.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="16" width="28.88671875" collapsed="false"/>
-    <col min="11" max="16384" style="16" width="44.6640625" collapsed="false"/>
+    <col min="1" max="1" width="10.6640625" style="16" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="16" customWidth="1"/>
+    <col min="5" max="6" width="29.88671875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="44.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -2303,18 +2480,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4">
@@ -2501,18 +2678,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4">
@@ -2701,30 +2878,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="48" width="12.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="48" width="12.21875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="19.44140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.77734375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="15.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="9.109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="48" width="13.77734375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="48" width="11.33203125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="48" width="14.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="48" width="16.33203125" collapsed="false"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" style="48" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14" style="48" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4">
@@ -2795,10 +2972,10 @@
         <v>727</v>
       </c>
       <c r="E2" s="26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F2" s="26">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G2" s="46" t="s">
         <v>98</v>
@@ -2863,10 +3040,10 @@
         <v>727</v>
       </c>
       <c r="E4" s="26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" s="26">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G4" s="46">
         <v>1050000</v>
@@ -2907,10 +3084,10 @@
         <v>727</v>
       </c>
       <c r="E5" s="26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F5" s="26">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G5" s="46">
         <v>1050000</v>
@@ -3036,8 +3213,12 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>175</v>
+      </c>
       <c r="C9" s="47"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -3049,7 +3230,9 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="N9" s="64">
+        <v>5695</v>
+      </c>
       <c r="O9" s="47"/>
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
@@ -3091,16 +3274,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.77734375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="48" width="14.6640625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4">
@@ -3213,32 +3396,33 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.21875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.77734375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="22.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="9.23828125" collapsed="false" bestFit="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4">
+    <row r="1" spans="1:16" ht="14.4">
       <c r="A1" s="60" t="s">
         <v>34</v>
       </c>
@@ -3284,8 +3468,11 @@
       <c r="O1" s="62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="63" t="s">
         <v>146</v>
       </c>
@@ -3317,8 +3504,9 @@
       <c r="O2" s="64">
         <v>15000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="64"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="63" t="s">
         <v>153</v>
       </c>
@@ -3341,8 +3529,8 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
-      <c r="K3" s="61" t="s">
-        <v>156</v>
+      <c r="K3" s="61">
+        <v>5655</v>
       </c>
       <c r="L3" s="61">
         <v>4000</v>
@@ -3356,8 +3544,9 @@
       <c r="O3" s="64">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="64"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="63" t="s">
         <v>149</v>
       </c>
@@ -3393,6 +3582,320 @@
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61">
+        <v>5695</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="64">
+        <v>7000</v>
+      </c>
+      <c r="P5" s="64">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61">
+        <v>5695</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.4">
+      <c r="A1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="61">
+        <v>158</v>
+      </c>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="61">
+        <v>727</v>
+      </c>
+      <c r="D2" s="61">
+        <v>11</v>
+      </c>
+      <c r="E2" s="61">
+        <v>163</v>
+      </c>
+      <c r="F2" s="61">
+        <v>4200000</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4">
+      <c r="A1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="61">
+        <v>5588</v>
+      </c>
+      <c r="D2" s="61">
+        <v>15</v>
+      </c>
+      <c r="E2" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,10 +3912,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="33.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="42.88671875" collapsed="false"/>
-    <col min="4" max="16384" style="2" width="137.6640625" collapsed="false"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="137.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3478,11 +3981,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3556,9 +4059,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3632,12 +4135,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="11.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="12" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="12" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="12" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="12" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="12"/>
+    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3707,12 +4210,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="12" width="11.5546875" collapsed="false"/>
-    <col min="3" max="3" style="12" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="12" width="15.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
-    <col min="6" max="16384" style="12" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="12"/>
+    <col min="4" max="4" width="15.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3777,15 +4280,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3854,8 +4357,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
@@ -3929,9 +4432,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="12" width="11.33203125" collapsed="false"/>
-    <col min="3" max="16384" style="12" width="10.44140625" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
